--- a/pred_ohlcv/54_21/2020-01-26 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-73177.22718959999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-70488.82488959999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-70486.82488959999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-72343.9958896</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-69723.4293896</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-71030.9293896</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-100363.2009896</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-100399.7816896</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-105024.2671896</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-105023.1671896</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-105022.0671896</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-105257.1458896</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-105256.0458896</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-105253.8458896</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-107482.6942896</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-107480.6842896</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-107400.75274412</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-106792.57094412</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-95915.79694411995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 GXC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-70486.82488959999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-71314.74498959999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-71032.9293896</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-71030.9293896</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-71046.84618960001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-78238.01268960001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-78242.01268960001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-77989.43428960002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-77870.73938960001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-100451.7816896</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-105254.9458896</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-105253.8458896</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-107481.6842896</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-107480.6842896</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-106882.24024412</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-107400.75274412</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-106792.57094412</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-101482.57094412</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-98042.57094411996</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-98038.43574411995</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-95915.79694411995</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-95111.89024411995</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
